--- a/Code/Results/Cases/Case_5_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000608816087183</v>
+        <v>1.031151043873884</v>
       </c>
       <c r="D2">
-        <v>1.018623401269044</v>
+        <v>1.033794005858964</v>
       </c>
       <c r="E2">
-        <v>1.015306302050161</v>
+        <v>1.040047548495011</v>
       </c>
       <c r="F2">
-        <v>1.022356787571011</v>
+        <v>1.049295746533633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046912197950458</v>
+        <v>1.034252190235561</v>
       </c>
       <c r="J2">
-        <v>1.022771332805609</v>
+        <v>1.036288353266912</v>
       </c>
       <c r="K2">
-        <v>1.029829239134636</v>
+        <v>1.036595331243573</v>
       </c>
       <c r="L2">
-        <v>1.026556436078821</v>
+        <v>1.042831005245077</v>
       </c>
       <c r="M2">
-        <v>1.033513201401633</v>
+        <v>1.052053201275855</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005189039903261</v>
+        <v>1.032114475006056</v>
       </c>
       <c r="D3">
-        <v>1.021898445684315</v>
+        <v>1.034486947339885</v>
       </c>
       <c r="E3">
-        <v>1.019163990621789</v>
+        <v>1.040911172603169</v>
       </c>
       <c r="F3">
-        <v>1.026669593706994</v>
+        <v>1.050263392983345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048193740922317</v>
+        <v>1.034434255854914</v>
       </c>
       <c r="J3">
-        <v>1.025539239110444</v>
+        <v>1.036893467496079</v>
       </c>
       <c r="K3">
-        <v>1.032258593948298</v>
+        <v>1.037097636706108</v>
       </c>
       <c r="L3">
-        <v>1.029557398761288</v>
+        <v>1.043504832478979</v>
       </c>
       <c r="M3">
-        <v>1.036972235651553</v>
+        <v>1.052832663760757</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008090916425972</v>
+        <v>1.03273813800451</v>
       </c>
       <c r="D4">
-        <v>1.023973736138489</v>
+        <v>1.0349351517338</v>
       </c>
       <c r="E4">
-        <v>1.021613930115602</v>
+        <v>1.041470595795954</v>
       </c>
       <c r="F4">
-        <v>1.029407679175175</v>
+        <v>1.050890145098847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048991441238318</v>
+        <v>1.034550333668626</v>
       </c>
       <c r="J4">
-        <v>1.027289895962349</v>
+        <v>1.037284676409204</v>
       </c>
       <c r="K4">
-        <v>1.033791179609844</v>
+        <v>1.037421812309858</v>
       </c>
       <c r="L4">
-        <v>1.031458309100407</v>
+        <v>1.043940804187239</v>
       </c>
       <c r="M4">
-        <v>1.039163676464472</v>
+        <v>1.05333702831738</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009296588653662</v>
+        <v>1.033000387040909</v>
       </c>
       <c r="D5">
-        <v>1.024835995543286</v>
+        <v>1.035123533593508</v>
       </c>
       <c r="E5">
-        <v>1.02263318927665</v>
+        <v>1.041705919885412</v>
       </c>
       <c r="F5">
-        <v>1.030546612029842</v>
+        <v>1.051153778930654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049319398423777</v>
+        <v>1.03459871775174</v>
       </c>
       <c r="J5">
-        <v>1.028016503410206</v>
+        <v>1.037449058230777</v>
       </c>
       <c r="K5">
-        <v>1.034426310614393</v>
+        <v>1.037557891334787</v>
       </c>
       <c r="L5">
-        <v>1.032247965094262</v>
+        <v>1.04412407623866</v>
       </c>
       <c r="M5">
-        <v>1.040074112305126</v>
+        <v>1.053549062128902</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0094982039492</v>
+        <v>1.03304442336831</v>
       </c>
       <c r="D6">
-        <v>1.024980183794626</v>
+        <v>1.035155161159996</v>
       </c>
       <c r="E6">
-        <v>1.02280371076201</v>
+        <v>1.041745440161006</v>
       </c>
       <c r="F6">
-        <v>1.03073714305444</v>
+        <v>1.051198052809794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049374034541344</v>
+        <v>1.03460681729514</v>
       </c>
       <c r="J6">
-        <v>1.02813796289802</v>
+        <v>1.037476653803436</v>
       </c>
       <c r="K6">
-        <v>1.034532421520322</v>
+        <v>1.037580727586689</v>
       </c>
       <c r="L6">
-        <v>1.032380004174812</v>
+        <v>1.044154847780878</v>
       </c>
       <c r="M6">
-        <v>1.040226352467645</v>
+        <v>1.053584663445433</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008107082096727</v>
+        <v>1.032741641949849</v>
       </c>
       <c r="D7">
-        <v>1.023985297337523</v>
+        <v>1.034937669073152</v>
       </c>
       <c r="E7">
-        <v>1.021627591047912</v>
+        <v>1.041473739649249</v>
       </c>
       <c r="F7">
-        <v>1.029422944868897</v>
+        <v>1.05089366720999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048995852278938</v>
+        <v>1.034550981810741</v>
       </c>
       <c r="J7">
-        <v>1.027299641359617</v>
+        <v>1.037286873212081</v>
       </c>
       <c r="K7">
-        <v>1.033799701953861</v>
+        <v>1.03742363140886</v>
       </c>
       <c r="L7">
-        <v>1.031468897401572</v>
+        <v>1.043943253119677</v>
       </c>
       <c r="M7">
-        <v>1.039175883912173</v>
+        <v>1.053339861529049</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002169853222521</v>
+        <v>1.031476585899872</v>
       </c>
       <c r="D8">
-        <v>1.019739497314585</v>
+        <v>1.034028224116637</v>
       </c>
       <c r="E8">
-        <v>1.016619832747396</v>
+        <v>1.040339289207548</v>
       </c>
       <c r="F8">
-        <v>1.023825476050531</v>
+        <v>1.049622638038527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047351929090454</v>
+        <v>1.034314078140005</v>
       </c>
       <c r="J8">
-        <v>1.02371529934494</v>
+        <v>1.036492924407443</v>
       </c>
       <c r="K8">
-        <v>1.030658561682404</v>
+        <v>1.036765263046734</v>
       </c>
       <c r="L8">
-        <v>1.027579287216574</v>
+        <v>1.043058735917389</v>
       </c>
       <c r="M8">
-        <v>1.034692104760128</v>
+        <v>1.052316623569899</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9912090142584651</v>
+        <v>1.029249411610388</v>
       </c>
       <c r="D9">
-        <v>1.011906893524331</v>
+        <v>1.032424384396941</v>
       </c>
       <c r="E9">
-        <v>1.007423521798418</v>
+        <v>1.038344896290439</v>
       </c>
       <c r="F9">
-        <v>1.013538741726004</v>
+        <v>1.047387725712582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044206104598344</v>
+        <v>1.033883396907239</v>
       </c>
       <c r="J9">
-        <v>1.017076070342511</v>
+        <v>1.035091317150397</v>
       </c>
       <c r="K9">
-        <v>1.024809698981553</v>
+        <v>1.035598670581237</v>
       </c>
       <c r="L9">
-        <v>1.020397294874814</v>
+        <v>1.041499843641413</v>
       </c>
       <c r="M9">
-        <v>1.026415915898341</v>
+        <v>1.050513597340069</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9835290370184785</v>
+        <v>1.027766029879015</v>
       </c>
       <c r="D10">
-        <v>1.006427056996327</v>
+        <v>1.031354375255897</v>
       </c>
       <c r="E10">
-        <v>1.00101601001361</v>
+        <v>1.03701850075134</v>
       </c>
       <c r="F10">
-        <v>1.00636581131784</v>
+        <v>1.045901084762932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041930345667492</v>
+        <v>1.033587421932294</v>
       </c>
       <c r="J10">
-        <v>1.012411740470387</v>
+        <v>1.03415523773537</v>
       </c>
       <c r="K10">
-        <v>1.020681230524056</v>
+        <v>1.03481665462964</v>
       </c>
       <c r="L10">
-        <v>1.015366944284849</v>
+        <v>1.040460464285105</v>
       </c>
       <c r="M10">
-        <v>1.020621072490547</v>
+        <v>1.0493116769516</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801060019190222</v>
+        <v>1.02712405052903</v>
       </c>
       <c r="D11">
-        <v>1.003987652264217</v>
+        <v>1.030890880147991</v>
       </c>
       <c r="E11">
-        <v>0.9981694535375577</v>
+        <v>1.036444930324551</v>
       </c>
       <c r="F11">
-        <v>1.003177726417868</v>
+        <v>1.045258150174917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040899864784785</v>
+        <v>1.033457169325331</v>
       </c>
       <c r="J11">
-        <v>1.010330470200652</v>
+        <v>1.033749518414146</v>
       </c>
       <c r="K11">
-        <v>1.018834757088916</v>
+        <v>1.034477027976455</v>
       </c>
       <c r="L11">
-        <v>1.0131259740472</v>
+        <v>1.040010385232445</v>
       </c>
       <c r="M11">
-        <v>1.018039963260948</v>
+        <v>1.048791268166728</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9788190365616233</v>
+        <v>1.02688564175182</v>
       </c>
       <c r="D12">
-        <v>1.003071050053124</v>
+        <v>1.030718692546047</v>
       </c>
       <c r="E12">
-        <v>0.9971006987898554</v>
+        <v>1.036231997184044</v>
       </c>
       <c r="F12">
-        <v>1.001980506447816</v>
+        <v>1.045019455560543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040510078402217</v>
+        <v>1.033408473775168</v>
       </c>
       <c r="J12">
-        <v>1.009547673782146</v>
+        <v>1.033598758291029</v>
       </c>
       <c r="K12">
-        <v>1.018139649157882</v>
+        <v>1.034350724893693</v>
       </c>
       <c r="L12">
-        <v>1.012283656432074</v>
+        <v>1.039843203580029</v>
       </c>
       <c r="M12">
-        <v>1.017069861189226</v>
+        <v>1.048597970775456</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.979095810491264</v>
+        <v>1.026936778928382</v>
       </c>
       <c r="D13">
-        <v>1.003268147717999</v>
+        <v>1.030755628476741</v>
       </c>
       <c r="E13">
-        <v>0.9973304768875102</v>
+        <v>1.036277666777558</v>
       </c>
       <c r="F13">
-        <v>1.002237914969113</v>
+        <v>1.045070650921134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040594010777865</v>
+        <v>1.033418933332629</v>
       </c>
       <c r="J13">
-        <v>1.009716033995744</v>
+        <v>1.033631099456528</v>
       </c>
       <c r="K13">
-        <v>1.018289177425435</v>
+        <v>1.034377824135134</v>
       </c>
       <c r="L13">
-        <v>1.012464793590778</v>
+        <v>1.039879064699609</v>
       </c>
       <c r="M13">
-        <v>1.017278475018683</v>
+        <v>1.04863943345258</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799999421926026</v>
+        <v>1.02710434254227</v>
       </c>
       <c r="D14">
-        <v>1.003912102780466</v>
+        <v>1.030876647567339</v>
       </c>
       <c r="E14">
-        <v>0.9980813463988943</v>
+        <v>1.036427326822564</v>
       </c>
       <c r="F14">
-        <v>1.003079033612747</v>
+        <v>1.045238417150885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040867789632319</v>
+        <v>1.033453150536684</v>
       </c>
       <c r="J14">
-        <v>1.010265965110634</v>
+        <v>1.03373705771189</v>
       </c>
       <c r="K14">
-        <v>1.018777490320302</v>
+        <v>1.034466590791644</v>
       </c>
       <c r="L14">
-        <v>1.013056553144758</v>
+        <v>1.0399965659857</v>
       </c>
       <c r="M14">
-        <v>1.017960009506798</v>
+        <v>1.048775290024033</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805549277713976</v>
+        <v>1.027207590784214</v>
       </c>
       <c r="D15">
-        <v>1.004307458250087</v>
+        <v>1.030951208164099</v>
       </c>
       <c r="E15">
-        <v>0.9985424506741822</v>
+        <v>1.036519552780825</v>
       </c>
       <c r="F15">
-        <v>1.003595527716425</v>
+        <v>1.045341799385721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041035535841653</v>
+        <v>1.033474191303941</v>
       </c>
       <c r="J15">
-        <v>1.010603493281133</v>
+        <v>1.033802334441454</v>
       </c>
       <c r="K15">
-        <v>1.019077118186039</v>
+        <v>1.034521262926581</v>
       </c>
       <c r="L15">
-        <v>1.013419825888452</v>
+        <v>1.040068962134275</v>
       </c>
       <c r="M15">
-        <v>1.018378402236787</v>
+        <v>1.04885899651364</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9837540868053292</v>
+        <v>1.027808643041826</v>
       </c>
       <c r="D16">
-        <v>1.006587507782718</v>
+        <v>1.031385132340679</v>
       </c>
       <c r="E16">
-        <v>1.001203358862644</v>
+        <v>1.037056583000561</v>
       </c>
       <c r="F16">
-        <v>1.006575606064653</v>
+        <v>1.045943770969698</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041997764959788</v>
+        <v>1.033596022311906</v>
       </c>
       <c r="J16">
-        <v>1.012548530845512</v>
+        <v>1.034182155826412</v>
       </c>
       <c r="K16">
-        <v>1.020802501408703</v>
+        <v>1.034839173359825</v>
       </c>
       <c r="L16">
-        <v>1.015514306262929</v>
+        <v>1.040490334184728</v>
       </c>
       <c r="M16">
-        <v>1.020790810329091</v>
+        <v>1.049346215499912</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9857341417329648</v>
+        <v>1.028185757317252</v>
       </c>
       <c r="D17">
-        <v>1.00799955466443</v>
+        <v>1.031657275804662</v>
       </c>
       <c r="E17">
-        <v>1.002852779157827</v>
+        <v>1.037393654175993</v>
       </c>
       <c r="F17">
-        <v>1.008422468967094</v>
+        <v>1.046321584336493</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042589110571222</v>
+        <v>1.033671883615793</v>
       </c>
       <c r="J17">
-        <v>1.013751793730839</v>
+        <v>1.034420303698186</v>
       </c>
       <c r="K17">
-        <v>1.021868761609236</v>
+        <v>1.035038320789927</v>
       </c>
       <c r="L17">
-        <v>1.01681097303206</v>
+        <v>1.040754644765974</v>
       </c>
       <c r="M17">
-        <v>1.022284415989678</v>
+        <v>1.049651844012915</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9868797216729918</v>
+        <v>1.028405753946776</v>
       </c>
       <c r="D18">
-        <v>1.008816786893087</v>
+        <v>1.031815995600805</v>
       </c>
       <c r="E18">
-        <v>1.003807947203054</v>
+        <v>1.037590336075824</v>
       </c>
       <c r="F18">
-        <v>1.009491834086662</v>
+        <v>1.046542032702742</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042929702401569</v>
+        <v>1.033715930200029</v>
       </c>
       <c r="J18">
-        <v>1.014447727876693</v>
+        <v>1.034559173566427</v>
       </c>
       <c r="K18">
-        <v>1.022485047009511</v>
+        <v>1.035154382742137</v>
       </c>
       <c r="L18">
-        <v>1.017561272660195</v>
+        <v>1.040908810576832</v>
       </c>
       <c r="M18">
-        <v>1.023148713101888</v>
+        <v>1.049830114846863</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9872687730197893</v>
+        <v>1.028480772563165</v>
       </c>
       <c r="D19">
-        <v>1.009094372383224</v>
+        <v>1.031870112047285</v>
       </c>
       <c r="E19">
-        <v>1.004132479879458</v>
+        <v>1.037657412035783</v>
       </c>
       <c r="F19">
-        <v>1.009855143459295</v>
+        <v>1.046617212793225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043045108257805</v>
+        <v>1.033730914661037</v>
       </c>
       <c r="J19">
-        <v>1.014684034872628</v>
+        <v>1.034606518174162</v>
       </c>
       <c r="K19">
-        <v>1.022694238661144</v>
+        <v>1.035193940324487</v>
       </c>
       <c r="L19">
-        <v>1.01781609788203</v>
+        <v>1.040961376754447</v>
       </c>
       <c r="M19">
-        <v>1.023442262477927</v>
+        <v>1.049890901054757</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.985522673846571</v>
+        <v>1.028145293183641</v>
       </c>
       <c r="D20">
-        <v>1.007848719884793</v>
+        <v>1.031628079123466</v>
       </c>
       <c r="E20">
-        <v>1.002676530934903</v>
+        <v>1.037357481967936</v>
       </c>
       <c r="F20">
-        <v>1.008225137756658</v>
+        <v>1.046281040645756</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04252611441107</v>
+        <v>1.033663765308529</v>
       </c>
       <c r="J20">
-        <v>1.013623309453139</v>
+        <v>1.034394756584799</v>
       </c>
       <c r="K20">
-        <v>1.021754948848117</v>
+        <v>1.035016964220691</v>
       </c>
       <c r="L20">
-        <v>1.016672479478883</v>
+        <v>1.040726286950605</v>
       </c>
       <c r="M20">
-        <v>1.022124883635198</v>
+        <v>1.049619052659422</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797341328209574</v>
+        <v>1.027054997823056</v>
       </c>
       <c r="D21">
-        <v>1.003722768010473</v>
+        <v>1.030841011138141</v>
       </c>
       <c r="E21">
-        <v>0.9978605541558175</v>
+        <v>1.036383252445704</v>
       </c>
       <c r="F21">
-        <v>1.002831710343288</v>
+        <v>1.045189010858397</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040787364463271</v>
+        <v>1.033443083084273</v>
       </c>
       <c r="J21">
-        <v>1.010104296345805</v>
+        <v>1.033705857238571</v>
       </c>
       <c r="K21">
-        <v>1.018633952991082</v>
+        <v>1.034440455374392</v>
       </c>
       <c r="L21">
-        <v>1.012882572673199</v>
+        <v>1.039961964840612</v>
       </c>
       <c r="M21">
-        <v>1.017759632965966</v>
+        <v>1.048735283487243</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9760045196613318</v>
+        <v>1.026369780886736</v>
       </c>
       <c r="D22">
-        <v>1.001067606575451</v>
+        <v>1.030346006925102</v>
       </c>
       <c r="E22">
-        <v>0.9947661803856537</v>
+        <v>1.035771390004777</v>
       </c>
       <c r="F22">
-        <v>0.999364927464773</v>
+        <v>1.044503102750176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039653391358665</v>
+        <v>1.033302515385199</v>
       </c>
       <c r="J22">
-        <v>1.007835259941346</v>
+        <v>1.033272384267554</v>
       </c>
       <c r="K22">
-        <v>1.016617943597794</v>
+        <v>1.034077110375351</v>
       </c>
       <c r="L22">
-        <v>1.010442038204723</v>
+        <v>1.039481392602299</v>
       </c>
       <c r="M22">
-        <v>1.014948975772901</v>
+        <v>1.048179655637715</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9779904985915233</v>
+        <v>1.026732999167153</v>
       </c>
       <c r="D23">
-        <v>1.002481114795974</v>
+        <v>1.030608431186855</v>
       </c>
       <c r="E23">
-        <v>0.9964130665001224</v>
+        <v>1.036095685565885</v>
       </c>
       <c r="F23">
-        <v>1.001210151864734</v>
+        <v>1.044866649426368</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040258482946659</v>
+        <v>1.033377204923862</v>
       </c>
       <c r="J23">
-        <v>1.009043638989577</v>
+        <v>1.033502207940211</v>
       </c>
       <c r="K23">
-        <v>1.017691904054573</v>
+        <v>1.034269808693642</v>
       </c>
       <c r="L23">
-        <v>1.011741449978324</v>
+        <v>1.039736153934704</v>
       </c>
       <c r="M23">
-        <v>1.016445416843648</v>
+        <v>1.048474201023128</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9856182559227233</v>
+        <v>1.028163577084192</v>
       </c>
       <c r="D24">
-        <v>1.007916895342954</v>
+        <v>1.031641271899213</v>
       </c>
       <c r="E24">
-        <v>1.002756191234264</v>
+        <v>1.037373826403222</v>
       </c>
       <c r="F24">
-        <v>1.008314327534984</v>
+        <v>1.046299360358973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042554593027083</v>
+        <v>1.033667434246409</v>
       </c>
       <c r="J24">
-        <v>1.01368138419339</v>
+        <v>1.034406300342378</v>
       </c>
       <c r="K24">
-        <v>1.021806393354342</v>
+        <v>1.035026614635975</v>
       </c>
       <c r="L24">
-        <v>1.016735077335199</v>
+        <v>1.040739100633201</v>
       </c>
       <c r="M24">
-        <v>1.022196990714701</v>
+        <v>1.049633869651695</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9941054531235058</v>
+        <v>1.029824945931131</v>
       </c>
       <c r="D25">
-        <v>1.013975591521452</v>
+        <v>1.032839159114891</v>
       </c>
       <c r="E25">
-        <v>1.009847699117853</v>
+        <v>1.038859935865062</v>
       </c>
       <c r="F25">
-        <v>1.016251291242112</v>
+        <v>1.047964927556434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04504998407726</v>
+        <v>1.033996301757562</v>
       </c>
       <c r="J25">
-        <v>1.018832833818249</v>
+        <v>1.035453965176408</v>
       </c>
       <c r="K25">
-        <v>1.02636076025096</v>
+        <v>1.035901022645645</v>
       </c>
       <c r="L25">
-        <v>1.022295041759938</v>
+        <v>1.041902879590032</v>
       </c>
       <c r="M25">
-        <v>1.028602458282559</v>
+        <v>1.050979710372256</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_83/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_83/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031151043873884</v>
+        <v>1.000608816087184</v>
       </c>
       <c r="D2">
-        <v>1.033794005858964</v>
+        <v>1.018623401269044</v>
       </c>
       <c r="E2">
-        <v>1.040047548495011</v>
+        <v>1.015306302050161</v>
       </c>
       <c r="F2">
-        <v>1.049295746533633</v>
+        <v>1.022356787571011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034252190235561</v>
+        <v>1.046912197950458</v>
       </c>
       <c r="J2">
-        <v>1.036288353266912</v>
+        <v>1.022771332805609</v>
       </c>
       <c r="K2">
-        <v>1.036595331243573</v>
+        <v>1.029829239134636</v>
       </c>
       <c r="L2">
-        <v>1.042831005245077</v>
+        <v>1.026556436078821</v>
       </c>
       <c r="M2">
-        <v>1.052053201275855</v>
+        <v>1.033513201401633</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.032114475006056</v>
+        <v>1.005189039903261</v>
       </c>
       <c r="D3">
-        <v>1.034486947339885</v>
+        <v>1.021898445684315</v>
       </c>
       <c r="E3">
-        <v>1.040911172603169</v>
+        <v>1.019163990621789</v>
       </c>
       <c r="F3">
-        <v>1.050263392983345</v>
+        <v>1.026669593706995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034434255854914</v>
+        <v>1.048193740922317</v>
       </c>
       <c r="J3">
-        <v>1.036893467496079</v>
+        <v>1.025539239110444</v>
       </c>
       <c r="K3">
-        <v>1.037097636706108</v>
+        <v>1.032258593948298</v>
       </c>
       <c r="L3">
-        <v>1.043504832478979</v>
+        <v>1.029557398761288</v>
       </c>
       <c r="M3">
-        <v>1.052832663760757</v>
+        <v>1.036972235651554</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03273813800451</v>
+        <v>1.008090916425972</v>
       </c>
       <c r="D4">
-        <v>1.0349351517338</v>
+        <v>1.023973736138489</v>
       </c>
       <c r="E4">
-        <v>1.041470595795954</v>
+        <v>1.021613930115601</v>
       </c>
       <c r="F4">
-        <v>1.050890145098847</v>
+        <v>1.029407679175174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034550333668626</v>
+        <v>1.048991441238318</v>
       </c>
       <c r="J4">
-        <v>1.037284676409204</v>
+        <v>1.027289895962349</v>
       </c>
       <c r="K4">
-        <v>1.037421812309858</v>
+        <v>1.033791179609844</v>
       </c>
       <c r="L4">
-        <v>1.043940804187239</v>
+        <v>1.031458309100407</v>
       </c>
       <c r="M4">
-        <v>1.05333702831738</v>
+        <v>1.039163676464471</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033000387040909</v>
+        <v>1.009296588653661</v>
       </c>
       <c r="D5">
-        <v>1.035123533593508</v>
+        <v>1.024835995543284</v>
       </c>
       <c r="E5">
-        <v>1.041705919885412</v>
+        <v>1.022633189276649</v>
       </c>
       <c r="F5">
-        <v>1.051153778930654</v>
+        <v>1.030546612029841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03459871775174</v>
+        <v>1.049319398423776</v>
       </c>
       <c r="J5">
-        <v>1.037449058230777</v>
+        <v>1.028016503410204</v>
       </c>
       <c r="K5">
-        <v>1.037557891334787</v>
+        <v>1.034426310614392</v>
       </c>
       <c r="L5">
-        <v>1.04412407623866</v>
+        <v>1.032247965094261</v>
       </c>
       <c r="M5">
-        <v>1.053549062128902</v>
+        <v>1.040074112305126</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03304442336831</v>
+        <v>1.009498203949199</v>
       </c>
       <c r="D6">
-        <v>1.035155161159996</v>
+        <v>1.024980183794626</v>
       </c>
       <c r="E6">
-        <v>1.041745440161006</v>
+        <v>1.022803710762009</v>
       </c>
       <c r="F6">
-        <v>1.051198052809794</v>
+        <v>1.030737143054439</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03460681729514</v>
+        <v>1.049374034541343</v>
       </c>
       <c r="J6">
-        <v>1.037476653803436</v>
+        <v>1.02813796289802</v>
       </c>
       <c r="K6">
-        <v>1.037580727586689</v>
+        <v>1.034532421520322</v>
       </c>
       <c r="L6">
-        <v>1.044154847780878</v>
+        <v>1.032380004174811</v>
       </c>
       <c r="M6">
-        <v>1.053584663445433</v>
+        <v>1.040226352467645</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032741641949849</v>
+        <v>1.008107082096728</v>
       </c>
       <c r="D7">
-        <v>1.034937669073152</v>
+        <v>1.023985297337524</v>
       </c>
       <c r="E7">
-        <v>1.041473739649249</v>
+        <v>1.021627591047913</v>
       </c>
       <c r="F7">
-        <v>1.05089366720999</v>
+        <v>1.029422944868898</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034550981810741</v>
+        <v>1.048995852278938</v>
       </c>
       <c r="J7">
-        <v>1.037286873212081</v>
+        <v>1.027299641359618</v>
       </c>
       <c r="K7">
-        <v>1.03742363140886</v>
+        <v>1.033799701953861</v>
       </c>
       <c r="L7">
-        <v>1.043943253119677</v>
+        <v>1.031468897401573</v>
       </c>
       <c r="M7">
-        <v>1.053339861529049</v>
+        <v>1.039175883912174</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031476585899872</v>
+        <v>1.002169853222522</v>
       </c>
       <c r="D8">
-        <v>1.034028224116637</v>
+        <v>1.019739497314585</v>
       </c>
       <c r="E8">
-        <v>1.040339289207548</v>
+        <v>1.016619832747397</v>
       </c>
       <c r="F8">
-        <v>1.049622638038527</v>
+        <v>1.023825476050532</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034314078140005</v>
+        <v>1.047351929090454</v>
       </c>
       <c r="J8">
-        <v>1.036492924407443</v>
+        <v>1.023715299344941</v>
       </c>
       <c r="K8">
-        <v>1.036765263046734</v>
+        <v>1.030658561682405</v>
       </c>
       <c r="L8">
-        <v>1.043058735917389</v>
+        <v>1.027579287216574</v>
       </c>
       <c r="M8">
-        <v>1.052316623569899</v>
+        <v>1.034692104760129</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029249411610388</v>
+        <v>0.9912090142584656</v>
       </c>
       <c r="D9">
-        <v>1.032424384396941</v>
+        <v>1.011906893524332</v>
       </c>
       <c r="E9">
-        <v>1.038344896290439</v>
+        <v>1.007423521798418</v>
       </c>
       <c r="F9">
-        <v>1.047387725712582</v>
+        <v>1.013538741726005</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033883396907239</v>
+        <v>1.044206104598344</v>
       </c>
       <c r="J9">
-        <v>1.035091317150397</v>
+        <v>1.017076070342511</v>
       </c>
       <c r="K9">
-        <v>1.035598670581237</v>
+        <v>1.024809698981553</v>
       </c>
       <c r="L9">
-        <v>1.041499843641413</v>
+        <v>1.020397294874815</v>
       </c>
       <c r="M9">
-        <v>1.050513597340069</v>
+        <v>1.026415915898341</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027766029879015</v>
+        <v>0.9835290370184787</v>
       </c>
       <c r="D10">
-        <v>1.031354375255897</v>
+        <v>1.006427056996327</v>
       </c>
       <c r="E10">
-        <v>1.03701850075134</v>
+        <v>1.001016010013611</v>
       </c>
       <c r="F10">
-        <v>1.045901084762932</v>
+        <v>1.006365811317841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033587421932294</v>
+        <v>1.041930345667492</v>
       </c>
       <c r="J10">
-        <v>1.03415523773537</v>
+        <v>1.012411740470388</v>
       </c>
       <c r="K10">
-        <v>1.03481665462964</v>
+        <v>1.020681230524056</v>
       </c>
       <c r="L10">
-        <v>1.040460464285105</v>
+        <v>1.015366944284849</v>
       </c>
       <c r="M10">
-        <v>1.0493116769516</v>
+        <v>1.020621072490548</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02712405052903</v>
+        <v>0.9801060019190231</v>
       </c>
       <c r="D11">
-        <v>1.030890880147991</v>
+        <v>1.003987652264218</v>
       </c>
       <c r="E11">
-        <v>1.036444930324551</v>
+        <v>0.9981694535375583</v>
       </c>
       <c r="F11">
-        <v>1.045258150174917</v>
+        <v>1.003177726417869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033457169325331</v>
+        <v>1.040899864784786</v>
       </c>
       <c r="J11">
-        <v>1.033749518414146</v>
+        <v>1.010330470200653</v>
       </c>
       <c r="K11">
-        <v>1.034477027976455</v>
+        <v>1.018834757088916</v>
       </c>
       <c r="L11">
-        <v>1.040010385232445</v>
+        <v>1.013125974047201</v>
       </c>
       <c r="M11">
-        <v>1.048791268166728</v>
+        <v>1.018039963260949</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02688564175182</v>
+        <v>0.9788190365616235</v>
       </c>
       <c r="D12">
-        <v>1.030718692546047</v>
+        <v>1.003071050053124</v>
       </c>
       <c r="E12">
-        <v>1.036231997184044</v>
+        <v>0.9971006987898554</v>
       </c>
       <c r="F12">
-        <v>1.045019455560543</v>
+        <v>1.001980506447817</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033408473775168</v>
+        <v>1.040510078402216</v>
       </c>
       <c r="J12">
-        <v>1.033598758291029</v>
+        <v>1.009547673782146</v>
       </c>
       <c r="K12">
-        <v>1.034350724893693</v>
+        <v>1.018139649157882</v>
       </c>
       <c r="L12">
-        <v>1.039843203580029</v>
+        <v>1.012283656432074</v>
       </c>
       <c r="M12">
-        <v>1.048597970775456</v>
+        <v>1.017069861189227</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026936778928382</v>
+        <v>0.979095810491264</v>
       </c>
       <c r="D13">
-        <v>1.030755628476741</v>
+        <v>1.003268147718</v>
       </c>
       <c r="E13">
-        <v>1.036277666777558</v>
+        <v>0.9973304768875105</v>
       </c>
       <c r="F13">
-        <v>1.045070650921134</v>
+        <v>1.002237914969113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033418933332629</v>
+        <v>1.040594010777865</v>
       </c>
       <c r="J13">
-        <v>1.033631099456528</v>
+        <v>1.009716033995744</v>
       </c>
       <c r="K13">
-        <v>1.034377824135134</v>
+        <v>1.018289177425435</v>
       </c>
       <c r="L13">
-        <v>1.039879064699609</v>
+        <v>1.012464793590778</v>
       </c>
       <c r="M13">
-        <v>1.04863943345258</v>
+        <v>1.017278475018683</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02710434254227</v>
+        <v>0.9799999421926026</v>
       </c>
       <c r="D14">
-        <v>1.030876647567339</v>
+        <v>1.003912102780466</v>
       </c>
       <c r="E14">
-        <v>1.036427326822564</v>
+        <v>0.9980813463988943</v>
       </c>
       <c r="F14">
-        <v>1.045238417150885</v>
+        <v>1.003079033612747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033453150536684</v>
+        <v>1.040867789632319</v>
       </c>
       <c r="J14">
-        <v>1.03373705771189</v>
+        <v>1.010265965110634</v>
       </c>
       <c r="K14">
-        <v>1.034466590791644</v>
+        <v>1.018777490320301</v>
       </c>
       <c r="L14">
-        <v>1.0399965659857</v>
+        <v>1.013056553144758</v>
       </c>
       <c r="M14">
-        <v>1.048775290024033</v>
+        <v>1.017960009506798</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027207590784214</v>
+        <v>0.9805549277713985</v>
       </c>
       <c r="D15">
-        <v>1.030951208164099</v>
+        <v>1.004307458250088</v>
       </c>
       <c r="E15">
-        <v>1.036519552780825</v>
+        <v>0.9985424506741829</v>
       </c>
       <c r="F15">
-        <v>1.045341799385721</v>
+        <v>1.003595527716426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033474191303941</v>
+        <v>1.041035535841654</v>
       </c>
       <c r="J15">
-        <v>1.033802334441454</v>
+        <v>1.010603493281133</v>
       </c>
       <c r="K15">
-        <v>1.034521262926581</v>
+        <v>1.01907711818604</v>
       </c>
       <c r="L15">
-        <v>1.040068962134275</v>
+        <v>1.013419825888452</v>
       </c>
       <c r="M15">
-        <v>1.04885899651364</v>
+        <v>1.018378402236787</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027808643041826</v>
+        <v>0.9837540868053292</v>
       </c>
       <c r="D16">
-        <v>1.031385132340679</v>
+        <v>1.006587507782718</v>
       </c>
       <c r="E16">
-        <v>1.037056583000561</v>
+        <v>1.001203358862644</v>
       </c>
       <c r="F16">
-        <v>1.045943770969698</v>
+        <v>1.006575606064654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033596022311906</v>
+        <v>1.041997764959788</v>
       </c>
       <c r="J16">
-        <v>1.034182155826412</v>
+        <v>1.012548530845512</v>
       </c>
       <c r="K16">
-        <v>1.034839173359825</v>
+        <v>1.020802501408703</v>
       </c>
       <c r="L16">
-        <v>1.040490334184728</v>
+        <v>1.015514306262929</v>
       </c>
       <c r="M16">
-        <v>1.049346215499912</v>
+        <v>1.020790810329091</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028185757317252</v>
+        <v>0.9857341417329648</v>
       </c>
       <c r="D17">
-        <v>1.031657275804662</v>
+        <v>1.00799955466443</v>
       </c>
       <c r="E17">
-        <v>1.037393654175993</v>
+        <v>1.002852779157828</v>
       </c>
       <c r="F17">
-        <v>1.046321584336493</v>
+        <v>1.008422468967094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033671883615793</v>
+        <v>1.042589110571222</v>
       </c>
       <c r="J17">
-        <v>1.034420303698186</v>
+        <v>1.013751793730839</v>
       </c>
       <c r="K17">
-        <v>1.035038320789927</v>
+        <v>1.021868761609236</v>
       </c>
       <c r="L17">
-        <v>1.040754644765974</v>
+        <v>1.01681097303206</v>
       </c>
       <c r="M17">
-        <v>1.049651844012915</v>
+        <v>1.022284415989678</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028405753946776</v>
+        <v>0.9868797216729914</v>
       </c>
       <c r="D18">
-        <v>1.031815995600805</v>
+        <v>1.008816786893086</v>
       </c>
       <c r="E18">
-        <v>1.037590336075824</v>
+        <v>1.003807947203053</v>
       </c>
       <c r="F18">
-        <v>1.046542032702742</v>
+        <v>1.009491834086663</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033715930200029</v>
+        <v>1.042929702401569</v>
       </c>
       <c r="J18">
-        <v>1.034559173566427</v>
+        <v>1.014447727876692</v>
       </c>
       <c r="K18">
-        <v>1.035154382742137</v>
+        <v>1.022485047009511</v>
       </c>
       <c r="L18">
-        <v>1.040908810576832</v>
+        <v>1.017561272660194</v>
       </c>
       <c r="M18">
-        <v>1.049830114846863</v>
+        <v>1.023148713101888</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028480772563165</v>
+        <v>0.9872687730197897</v>
       </c>
       <c r="D19">
-        <v>1.031870112047285</v>
+        <v>1.009094372383224</v>
       </c>
       <c r="E19">
-        <v>1.037657412035783</v>
+        <v>1.004132479879458</v>
       </c>
       <c r="F19">
-        <v>1.046617212793225</v>
+        <v>1.009855143459295</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033730914661037</v>
+        <v>1.043045108257805</v>
       </c>
       <c r="J19">
-        <v>1.034606518174162</v>
+        <v>1.014684034872629</v>
       </c>
       <c r="K19">
-        <v>1.035193940324487</v>
+        <v>1.022694238661144</v>
       </c>
       <c r="L19">
-        <v>1.040961376754447</v>
+        <v>1.017816097882031</v>
       </c>
       <c r="M19">
-        <v>1.049890901054757</v>
+        <v>1.023442262477927</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028145293183641</v>
+        <v>0.9855226738465713</v>
       </c>
       <c r="D20">
-        <v>1.031628079123466</v>
+        <v>1.007848719884793</v>
       </c>
       <c r="E20">
-        <v>1.037357481967936</v>
+        <v>1.002676530934903</v>
       </c>
       <c r="F20">
-        <v>1.046281040645756</v>
+        <v>1.008225137756658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033663765308529</v>
+        <v>1.04252611441107</v>
       </c>
       <c r="J20">
-        <v>1.034394756584799</v>
+        <v>1.013623309453139</v>
       </c>
       <c r="K20">
-        <v>1.035016964220691</v>
+        <v>1.021754948848117</v>
       </c>
       <c r="L20">
-        <v>1.040726286950605</v>
+        <v>1.016672479478883</v>
       </c>
       <c r="M20">
-        <v>1.049619052659422</v>
+        <v>1.022124883635198</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027054997823056</v>
+        <v>0.9797341328209578</v>
       </c>
       <c r="D21">
-        <v>1.030841011138141</v>
+        <v>1.003722768010474</v>
       </c>
       <c r="E21">
-        <v>1.036383252445704</v>
+        <v>0.9978605541558176</v>
       </c>
       <c r="F21">
-        <v>1.045189010858397</v>
+        <v>1.002831710343288</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033443083084273</v>
+        <v>1.040787364463272</v>
       </c>
       <c r="J21">
-        <v>1.033705857238571</v>
+        <v>1.010104296345805</v>
       </c>
       <c r="K21">
-        <v>1.034440455374392</v>
+        <v>1.018633952991082</v>
       </c>
       <c r="L21">
-        <v>1.039961964840612</v>
+        <v>1.0128825726732</v>
       </c>
       <c r="M21">
-        <v>1.048735283487243</v>
+        <v>1.017759632965967</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026369780886736</v>
+        <v>0.9760045196613321</v>
       </c>
       <c r="D22">
-        <v>1.030346006925102</v>
+        <v>1.001067606575452</v>
       </c>
       <c r="E22">
-        <v>1.035771390004777</v>
+        <v>0.9947661803856537</v>
       </c>
       <c r="F22">
-        <v>1.044503102750176</v>
+        <v>0.999364927464773</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033302515385199</v>
+        <v>1.039653391358665</v>
       </c>
       <c r="J22">
-        <v>1.033272384267554</v>
+        <v>1.007835259941346</v>
       </c>
       <c r="K22">
-        <v>1.034077110375351</v>
+        <v>1.016617943597794</v>
       </c>
       <c r="L22">
-        <v>1.039481392602299</v>
+        <v>1.010442038204723</v>
       </c>
       <c r="M22">
-        <v>1.048179655637715</v>
+        <v>1.0149489757729</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026732999167153</v>
+        <v>0.9779904985915227</v>
       </c>
       <c r="D23">
-        <v>1.030608431186855</v>
+        <v>1.002481114795973</v>
       </c>
       <c r="E23">
-        <v>1.036095685565885</v>
+        <v>0.9964130665001217</v>
       </c>
       <c r="F23">
-        <v>1.044866649426368</v>
+        <v>1.001210151864733</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033377204923862</v>
+        <v>1.040258482946658</v>
       </c>
       <c r="J23">
-        <v>1.033502207940211</v>
+        <v>1.009043638989577</v>
       </c>
       <c r="K23">
-        <v>1.034269808693642</v>
+        <v>1.017691904054573</v>
       </c>
       <c r="L23">
-        <v>1.039736153934704</v>
+        <v>1.011741449978323</v>
       </c>
       <c r="M23">
-        <v>1.048474201023128</v>
+        <v>1.016445416843647</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028163577084192</v>
+        <v>0.985618255922724</v>
       </c>
       <c r="D24">
-        <v>1.031641271899213</v>
+        <v>1.007916895342955</v>
       </c>
       <c r="E24">
-        <v>1.037373826403222</v>
+        <v>1.002756191234264</v>
       </c>
       <c r="F24">
-        <v>1.046299360358973</v>
+        <v>1.008314327534985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033667434246409</v>
+        <v>1.042554593027084</v>
       </c>
       <c r="J24">
-        <v>1.034406300342378</v>
+        <v>1.013681384193391</v>
       </c>
       <c r="K24">
-        <v>1.035026614635975</v>
+        <v>1.021806393354342</v>
       </c>
       <c r="L24">
-        <v>1.040739100633201</v>
+        <v>1.016735077335199</v>
       </c>
       <c r="M24">
-        <v>1.049633869651695</v>
+        <v>1.022196990714701</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029824945931131</v>
+        <v>0.9941054531235056</v>
       </c>
       <c r="D25">
-        <v>1.032839159114891</v>
+        <v>1.013975591521451</v>
       </c>
       <c r="E25">
-        <v>1.038859935865062</v>
+        <v>1.009847699117853</v>
       </c>
       <c r="F25">
-        <v>1.047964927556434</v>
+        <v>1.016251291242112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033996301757562</v>
+        <v>1.04504998407726</v>
       </c>
       <c r="J25">
-        <v>1.035453965176408</v>
+        <v>1.018832833818249</v>
       </c>
       <c r="K25">
-        <v>1.035901022645645</v>
+        <v>1.02636076025096</v>
       </c>
       <c r="L25">
-        <v>1.041902879590032</v>
+        <v>1.022295041759938</v>
       </c>
       <c r="M25">
-        <v>1.050979710372256</v>
+        <v>1.028602458282559</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
